--- a/TIEMPOS/archivo_tiempos23.xlsx
+++ b/TIEMPOS/archivo_tiempos23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,83 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.004373073577880859</v>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01308107376098633</v>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02739334106445312</v>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07795143127441406</v>
+      </c>
+      <c r="C5" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1163637638092041</v>
+      </c>
+      <c r="C6" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2454268932342529</v>
+      </c>
+      <c r="C7" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7508738040924072</v>
+      </c>
+      <c r="C8" t="n">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TIEMPOS/archivo_tiempos23.xlsx
+++ b/TIEMPOS/archivo_tiempos23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,83 +450,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.004373073577880859</v>
-      </c>
-      <c r="C2" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.01308107376098633</v>
-      </c>
-      <c r="C3" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.02739334106445312</v>
-      </c>
-      <c r="C4" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.07795143127441406</v>
-      </c>
-      <c r="C5" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1163637638092041</v>
-      </c>
-      <c r="C6" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2454268932342529</v>
-      </c>
-      <c r="C7" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.7508738040924072</v>
-      </c>
-      <c r="C8" t="n">
-        <v>136</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
